--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/99/word_level_predictions_99.xlsx
@@ -785,7 +785,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G7" s="2" t="b">
@@ -809,7 +809,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G27" s="2" t="b">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G31" s="2" t="b">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2929,11 +2929,11 @@
         </is>
       </c>
       <c r="I48" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K48" s="2" t="b">
@@ -2981,11 +2981,11 @@
         </is>
       </c>
       <c r="I49" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K49" s="2" t="b">
@@ -3033,11 +3033,11 @@
         </is>
       </c>
       <c r="I50" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K50" s="2" t="b">
@@ -3085,11 +3085,11 @@
         </is>
       </c>
       <c r="I51" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K51" s="2" t="b">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G79" s="2" t="b">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5650,626 +5650,626 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" t="n">
         <v>7</v>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>AirSense</t>
         </is>
       </c>
-      <c r="D101" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" s="2" t="inlineStr">
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F101" s="2" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" s="2" t="inlineStr">
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L101" s="2" t="inlineStr">
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" t="n">
         <v>7</v>
       </c>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" s="2" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>communication</t>
         </is>
       </c>
-      <c r="D102" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" s="2" t="inlineStr">
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F102" s="2" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" s="2" t="inlineStr">
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" s="2" t="inlineStr">
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" t="n">
         <v>7</v>
       </c>
-      <c r="B103" s="2" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C103" s="2" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D103" s="2" t="n">
+      <c r="D103" t="n">
         <v>2</v>
       </c>
-      <c r="E103" s="2" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F103" s="2" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G103" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103" s="2" t="inlineStr">
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L103" s="2" t="inlineStr">
+      <c r="I103" t="b">
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" t="n">
         <v>7</v>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" t="n">
         <v>3</v>
       </c>
-      <c r="E104" s="2" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F104" s="2" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G104" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" s="2" t="inlineStr">
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" s="2" t="inlineStr">
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" t="n">
         <v>7</v>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" t="n">
         <v>4</v>
       </c>
-      <c r="E105" s="2" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F105" s="2" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G105" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="2" t="inlineStr">
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" s="2" t="inlineStr">
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" t="n">
         <v>7</v>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" s="2" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" t="n">
         <v>5</v>
       </c>
-      <c r="E106" s="2" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F106" s="2" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G106" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="inlineStr">
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" t="n">
         <v>7</v>
       </c>
-      <c r="B107" s="2" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" s="2" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" t="n">
         <v>6</v>
       </c>
-      <c r="E107" s="2" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F107" s="2" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G107" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="2" t="inlineStr">
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="2" t="inlineStr">
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" t="n">
         <v>7</v>
       </c>
-      <c r="B108" s="2" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" s="2" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" t="n">
         <v>7</v>
       </c>
-      <c r="E108" s="2" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F108" s="2" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G108" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2" t="inlineStr">
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" t="n">
         <v>7</v>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" s="2" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" t="n">
         <v>8</v>
       </c>
-      <c r="E109" s="2" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F109" s="2" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G109" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" s="2" t="inlineStr">
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L109" s="2" t="inlineStr">
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" t="n">
         <v>7</v>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C110" s="2" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" t="n">
         <v>9</v>
       </c>
-      <c r="E110" s="2" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F110" s="2" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G110" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2" t="inlineStr">
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" t="n">
         <v>7</v>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
+      <c r="D111" t="n">
         <v>10</v>
       </c>
-      <c r="E111" s="2" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F111" s="2" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" s="2" t="inlineStr">
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" t="n">
         <v>7</v>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C112" s="2" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" t="n">
         <v>11</v>
       </c>
-      <c r="E112" s="2" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6482,416 +6482,416 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" t="n">
         <v>8</v>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C117" s="2" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>Extra</t>
         </is>
       </c>
-      <c r="D117" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2" t="inlineStr">
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F117" s="2" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" s="2" t="inlineStr">
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" s="2" t="inlineStr">
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" t="n">
         <v>8</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>payload</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E118" s="2" t="inlineStr">
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F118" s="2" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="inlineStr">
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>8</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>detected</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>2</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F119" s="2" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>8</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>3</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F120" s="2" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>8</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>4</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F121" s="2" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" t="n">
         <v>8</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" t="n">
         <v>5</v>
       </c>
-      <c r="E122" s="2" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F122" s="2" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>8</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>distance</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" t="n">
         <v>6</v>
       </c>
-      <c r="E123" s="2" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F123" s="2" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>8</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>set</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" t="n">
         <v>7</v>
       </c>
-      <c r="E124" s="2" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F124" s="2" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G134" s="2" t="b">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G135" s="2" t="b">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G138" s="2" t="b">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -9550,624 +9550,624 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Weak</t>
         </is>
       </c>
-      <c r="D176" t="n">
-        <v>0</v>
-      </c>
-      <c r="E176" t="inlineStr">
+      <c r="D176" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>GPS</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>1</v>
-      </c>
-      <c r="E177" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>signal</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>Positioning</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>signal</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>2</v>
-      </c>
-      <c r="E178" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>be</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>compromised</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E183" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="F183" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="n">
+    <row r="184">
+      <c r="A184" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Positioning</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>3</v>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>Please</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="n">
+    <row r="185">
+      <c r="A185" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>4</v>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>fly</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>5</v>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B187" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>6</v>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>caution</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>compromised</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>7</v>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>11</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Please</t>
-        </is>
-      </c>
-      <c r="D184" t="n">
-        <v>8</v>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>11</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>fly</t>
-        </is>
-      </c>
-      <c r="D185" t="n">
-        <v>9</v>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>11</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D186" t="n">
-        <v>10</v>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>11</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>caution</t>
-        </is>
-      </c>
-      <c r="D187" t="n">
-        <v>11</v>
-      </c>
-      <c r="E187" t="inlineStr">
+      <c r="E187" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="F187" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G187" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I187" t="b">
-        <v>1</v>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K187" t="b">
-        <v>1</v>
-      </c>
-      <c r="L187" t="inlineStr">
+      <c r="G187" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J187" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L187" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10457,7 +10457,7 @@
       </c>
       <c r="F193" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G193" s="2" t="b">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="L193" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -11422,364 +11422,364 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12150,312 +12150,312 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C226" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E226" t="inlineStr">
+      <c r="E226" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" t="b">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K226" t="b">
-        <v>1</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J226" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L226" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D227" t="n">
+      <c r="D227" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="E227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C228" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D228" t="n">
+      <c r="D228" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
+      <c r="A229" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D229" t="n">
+      <c r="D229" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I229" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K229" t="b">
-        <v>1</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="E229" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J229" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L229" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C230" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="E230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D231" t="n">
+      <c r="D231" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E231" t="inlineStr">
+      <c r="E231" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
+      <c r="F231" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13086,208 +13086,208 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
+      <c r="A244" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B244" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C244" s="2" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D244" t="n">
-        <v>0</v>
-      </c>
-      <c r="E244" t="inlineStr">
+      <c r="D244" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E244" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
+      <c r="F244" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G244" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" t="inlineStr">
+      <c r="G244" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I244" t="b">
-        <v>1</v>
-      </c>
-      <c r="J244" t="inlineStr">
+      <c r="I244" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J244" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K244" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L244" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B245" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C245" s="2" t="inlineStr">
+        <is>
+          <t>altitude</t>
+        </is>
+      </c>
+      <c r="D245" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E245" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F245" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G245" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H245" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K244" t="b">
-        <v>1</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
+      <c r="I245" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J245" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K245" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L245" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B246" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>altitude</t>
-        </is>
-      </c>
-      <c r="D245" t="n">
-        <v>1</v>
-      </c>
-      <c r="E245" t="inlineStr">
+      <c r="C246" s="2" t="inlineStr">
+        <is>
+          <t>exceeds</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E246" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
+      <c r="F246" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G245" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245" t="inlineStr">
+      <c r="G246" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I245" t="b">
-        <v>1</v>
-      </c>
-      <c r="J245" t="inlineStr">
+      <c r="I246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J246" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L246" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B247" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C247" s="2" t="inlineStr">
+        <is>
+          <t>nnn</t>
+        </is>
+      </c>
+      <c r="D247" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E247" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F247" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G247" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K245" t="b">
-        <v>1</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>16</v>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>exceeds</t>
-        </is>
-      </c>
-      <c r="D246" t="n">
-        <v>2</v>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I246" t="b">
-        <v>1</v>
-      </c>
-      <c r="J246" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K246" t="b">
-        <v>1</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>16</v>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>nnn</t>
-        </is>
-      </c>
-      <c r="D247" t="n">
-        <v>3</v>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G247" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I247" t="b">
-        <v>1</v>
-      </c>
-      <c r="J247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K247" t="b">
-        <v>1</v>
-      </c>
-      <c r="L247" t="inlineStr">
+      <c r="I247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J247" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L247" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -13329,11 +13329,11 @@
         </is>
       </c>
       <c r="I248" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K248" s="2" t="b">
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13381,11 +13381,11 @@
         </is>
       </c>
       <c r="I249" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13433,11 +13433,11 @@
         </is>
       </c>
       <c r="I250" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13485,11 +13485,11 @@
         </is>
       </c>
       <c r="I251" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J251" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13537,11 +13537,11 @@
         </is>
       </c>
       <c r="I252" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13589,11 +13589,11 @@
         </is>
       </c>
       <c r="I253" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J253" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13641,11 +13641,11 @@
         </is>
       </c>
       <c r="I254" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J254" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13693,11 +13693,11 @@
         </is>
       </c>
       <c r="I255" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13745,11 +13745,11 @@
         </is>
       </c>
       <c r="I256" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13797,11 +13797,11 @@
         </is>
       </c>
       <c r="I257" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K257" s="2" t="b">
@@ -13809,733 +13809,733 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
+      <c r="A258" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B258" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C258" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D258" t="n">
+      <c r="D258" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E258" t="inlineStr">
+      <c r="E258" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G258" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" t="b">
-        <v>1</v>
-      </c>
-      <c r="J258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K258" t="b">
-        <v>1</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F258" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G258" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J258" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L258" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
+      <c r="A259" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B259" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C259" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D259" t="n">
+      <c r="D259" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G259" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I259" t="b">
-        <v>1</v>
-      </c>
-      <c r="J259" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K259" t="b">
-        <v>1</v>
-      </c>
-      <c r="L259" t="inlineStr">
+      <c r="E259" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F259" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G259" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J259" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L259" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" s="2" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D260" t="n">
+      <c r="D260" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
-      <c r="L260" t="inlineStr">
+      <c r="E260" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F260" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D261" t="n">
+      <c r="D261" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="E261" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F261" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C262" s="2" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D262" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
+      <c r="E262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
+      <c r="A263" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B263" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="C263" s="2" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D263" t="n">
+      <c r="D263" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
+      <c r="E263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
+      <c r="A264" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B264" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C264" s="2" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D264" t="n">
+      <c r="D264" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
+      <c r="E264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
+      <c r="A265" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B265" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
+      <c r="C265" s="2" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D265" t="n">
+      <c r="D265" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
+      <c r="E265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
+      <c r="A266" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B266" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="C266" s="2" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D266" t="n">
+      <c r="D266" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
+      <c r="E266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
+      <c r="A267" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B267" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
+      <c r="C267" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D267" t="n">
+      <c r="D267" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
+      <c r="E267" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F267" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
+      <c r="A268" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B268" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="C268" s="2" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D268" t="n">
+      <c r="D268" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
+      <c r="E268" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F268" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
+      <c r="A269" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B269" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
+      <c r="C269" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D269" t="n">
+      <c r="D269" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
+      <c r="E269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
+      <c r="A270" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="C270" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D270" t="n">
+      <c r="D270" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
+      <c r="E270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
+      <c r="A271" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B271" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
+      <c r="C271" s="2" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D271" t="n">
+      <c r="D271" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E271" t="inlineStr">
+      <c r="E271" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
+      <c r="F271" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G271" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K271" t="b">
-        <v>1</v>
-      </c>
-      <c r="L271" t="inlineStr">
+      <c r="G271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -14981,7 +14981,7 @@
       </c>
       <c r="F280" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G280" s="2" t="b">
@@ -15005,7 +15005,7 @@
       </c>
       <c r="L280" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15530,156 +15530,156 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="n">
+      <c r="A291" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B291" t="inlineStr">
+      <c r="B291" s="2" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr">
+      <c r="C291" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D291" t="n">
+      <c r="D291" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E291" t="inlineStr">
+      <c r="E291" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G291" t="b">
-        <v>1</v>
-      </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I291" t="b">
-        <v>1</v>
-      </c>
-      <c r="J291" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K291" t="b">
-        <v>1</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F291" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G291" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H291" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I291" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J291" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K291" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L291" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="n">
+      <c r="A292" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B292" t="inlineStr">
+      <c r="B292" s="2" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
+      <c r="C292" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D292" t="n">
+      <c r="D292" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G292" t="b">
-        <v>1</v>
-      </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I292" t="b">
-        <v>1</v>
-      </c>
-      <c r="J292" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K292" t="b">
-        <v>1</v>
-      </c>
-      <c r="L292" t="inlineStr">
+      <c r="E292" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F292" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G292" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H292" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I292" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J292" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K292" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L292" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="n">
+      <c r="A293" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B293" t="inlineStr">
+      <c r="B293" s="2" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
+      <c r="C293" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D293" t="n">
+      <c r="D293" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E293" t="inlineStr">
+      <c r="E293" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F293" t="inlineStr">
+      <c r="F293" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G293" t="b">
-        <v>1</v>
-      </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I293" t="b">
-        <v>1</v>
-      </c>
-      <c r="J293" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K293" t="b">
-        <v>1</v>
-      </c>
-      <c r="L293" t="inlineStr">
+      <c r="G293" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H293" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I293" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J293" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K293" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L293" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/99/word_level_predictions_99.xlsx
@@ -785,7 +785,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G7" s="2" t="b">
@@ -809,7 +809,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G27" s="2" t="b">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G31" s="2" t="b">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -2929,11 +2929,11 @@
         </is>
       </c>
       <c r="I48" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K48" s="2" t="b">
@@ -2981,11 +2981,11 @@
         </is>
       </c>
       <c r="I49" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K49" s="2" t="b">
@@ -3033,11 +3033,11 @@
         </is>
       </c>
       <c r="I50" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K50" s="2" t="b">
@@ -3085,11 +3085,11 @@
         </is>
       </c>
       <c r="I51" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K51" s="2" t="b">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G79" s="2" t="b">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -5650,626 +5650,626 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>AirSense</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="inlineStr">
+      <c r="D101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F101" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="inlineStr">
+      <c r="G101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I101" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr">
+      <c r="I101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K101" t="b">
-        <v>1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
+      <c r="I102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B103" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" t="inlineStr">
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr">
+      <c r="I103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>Unable</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K102" t="b">
-        <v>1</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
+      <c r="I104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>2</v>
-      </c>
-      <c r="E103" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>display</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>nearby</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>manned</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>anti-collision</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>warnings</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G103" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103" t="inlineStr">
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I103" t="b">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K103" t="b">
-        <v>1</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>7</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Unable</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>3</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K104" t="b">
-        <v>1</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>7</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>4</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>7</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>display</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>5</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>7</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>nearby</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>6</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>7</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>manned</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>7</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>7</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>8</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G109" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K109" t="b">
-        <v>1</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>7</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>9</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>7</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>anti-collision</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>10</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>7</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>warnings</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>11</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6482,416 +6482,416 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C117" s="2" t="inlineStr">
         <is>
           <t>Extra</t>
         </is>
       </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" t="inlineStr">
+      <c r="D117" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="F117" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G117" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" t="inlineStr">
+      <c r="G117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr">
+      <c r="I117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K117" t="b">
-        <v>1</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
+      <c r="I118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>payload</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>1</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>detected</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr">
+      <c r="I119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>detected</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>2</v>
-      </c>
-      <c r="E119" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>altitude</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>8</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>3</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>8</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>altitude</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>4</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>8</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>5</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>8</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>distance</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>6</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>8</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>7</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G134" s="2" t="b">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G135" s="2" t="b">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G138" s="2" t="b">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -9550,624 +9550,624 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>11</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Weak</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>11</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
+      <c r="D177" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>11</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>2</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>11</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>Positioning</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>3</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>11</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>4</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>11</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>5</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>11</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>6</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>11</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>compromised</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>7</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>11</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>8</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>11</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>9</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>11</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>10</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
+      <c r="A187" t="n">
         <v>11</v>
       </c>
-      <c r="B187" s="2" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C187" s="2" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D187" s="2" t="n">
+      <c r="D187" t="n">
         <v>11</v>
       </c>
-      <c r="E187" s="2" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F187" s="2" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G187" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L187" s="2" t="inlineStr">
+      <c r="G187" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I187" t="b">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K187" t="b">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10457,7 +10457,7 @@
       </c>
       <c r="F193" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G193" s="2" t="b">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="L193" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11422,364 +11422,364 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>13</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>5</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>13</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>6</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>13</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>7</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>13</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>8</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>13</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>9</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>13</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>10</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>13</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>11</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" s="2" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12150,312 +12150,312 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="n">
+      <c r="A226" t="n">
         <v>14</v>
       </c>
-      <c r="B226" s="2" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C226" s="2" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D226" s="2" t="n">
+      <c r="D226" t="n">
         <v>6</v>
       </c>
-      <c r="E226" s="2" t="inlineStr">
+      <c r="E226" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F226" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L226" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" t="b">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K226" t="b">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" t="n">
         <v>14</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
+      <c r="D227" t="n">
         <v>7</v>
       </c>
-      <c r="E227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" t="n">
         <v>14</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
+      <c r="D228" t="n">
         <v>8</v>
       </c>
-      <c r="E228" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F228" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" t="n">
         <v>14</v>
       </c>
-      <c r="B229" s="2" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C229" s="2" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D229" s="2" t="n">
+      <c r="D229" t="n">
         <v>9</v>
       </c>
-      <c r="E229" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L229" s="2" t="inlineStr">
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K229" t="b">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>14</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>10</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>14</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" t="n">
         <v>11</v>
       </c>
-      <c r="E231" s="2" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F231" s="2" t="inlineStr">
+      <c r="F231" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -13086,208 +13086,208 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2" t="n">
+      <c r="A244" t="n">
         <v>16</v>
       </c>
-      <c r="B244" s="2" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C244" s="2" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D244" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E244" s="2" t="inlineStr">
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
+      <c r="E244" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F244" s="2" t="inlineStr">
+      <c r="F244" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G244" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" s="2" t="inlineStr">
+      <c r="G244" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I244" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K244" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L244" s="2" t="inlineStr">
+      <c r="I244" t="b">
+        <v>1</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K244" t="b">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="n">
+      <c r="A245" t="n">
         <v>16</v>
       </c>
-      <c r="B245" s="2" t="inlineStr">
+      <c r="B245" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C245" s="2" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D245" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E245" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F245" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G245" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245" s="2" t="inlineStr">
+      <c r="D245" t="n">
+        <v>1</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G245" t="b">
+        <v>1</v>
+      </c>
+      <c r="H245" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I245" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K245" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L245" s="2" t="inlineStr">
+      <c r="I245" t="b">
+        <v>1</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K245" t="b">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="n">
+      <c r="A246" t="n">
         <v>16</v>
       </c>
-      <c r="B246" s="2" t="inlineStr">
+      <c r="B246" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C246" s="2" t="inlineStr">
+      <c r="C246" t="inlineStr">
         <is>
           <t>exceeds</t>
         </is>
       </c>
-      <c r="D246" s="2" t="n">
+      <c r="D246" t="n">
         <v>2</v>
       </c>
-      <c r="E246" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F246" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G246" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" s="2" t="inlineStr">
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G246" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L246" s="2" t="inlineStr">
+      <c r="I246" t="b">
+        <v>1</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K246" t="b">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="n">
+      <c r="A247" t="n">
         <v>16</v>
       </c>
-      <c r="B247" s="2" t="inlineStr">
+      <c r="B247" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C247" s="2" t="inlineStr">
+      <c r="C247" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D247" s="2" t="n">
+      <c r="D247" t="n">
         <v>3</v>
       </c>
-      <c r="E247" s="2" t="inlineStr">
+      <c r="E247" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F247" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G247" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" s="2" t="inlineStr">
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G247" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L247" s="2" t="inlineStr">
+      <c r="I247" t="b">
+        <v>1</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K247" t="b">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -13329,11 +13329,11 @@
         </is>
       </c>
       <c r="I248" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K248" s="2" t="b">
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13381,11 +13381,11 @@
         </is>
       </c>
       <c r="I249" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13433,11 +13433,11 @@
         </is>
       </c>
       <c r="I250" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13485,11 +13485,11 @@
         </is>
       </c>
       <c r="I251" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13537,11 +13537,11 @@
         </is>
       </c>
       <c r="I252" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13589,11 +13589,11 @@
         </is>
       </c>
       <c r="I253" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13641,11 +13641,11 @@
         </is>
       </c>
       <c r="I254" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13693,11 +13693,11 @@
         </is>
       </c>
       <c r="I255" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13745,11 +13745,11 @@
         </is>
       </c>
       <c r="I256" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13785,757 +13785,757 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>16</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>14</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G258" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" t="b">
+        <v>1</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K258" t="b">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>16</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>15</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G259" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I259" t="b">
+        <v>1</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K259" t="b">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>16</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>16</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K260" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>16</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>sure</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>17</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>16</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>you</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>18</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>16</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>have</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>19</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>16</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>obtained</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>20</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>16</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>proper</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>21</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>16</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>authorization</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>22</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>16</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>23</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>16</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>fly</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>24</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>16</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>25</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>16</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>26</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>16</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>airspace</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>27</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B258" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C258" s="2" t="inlineStr">
-        <is>
-          <t>Check</t>
-        </is>
-      </c>
-      <c r="D258" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E258" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F258" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G258" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L258" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B259" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C259" s="2" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D259" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E259" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F259" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G259" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L259" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B260" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C260" s="2" t="inlineStr">
-        <is>
-          <t>make</t>
-        </is>
-      </c>
-      <c r="D260" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E260" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F260" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L260" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B261" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C261" s="2" t="inlineStr">
-        <is>
-          <t>sure</t>
-        </is>
-      </c>
-      <c r="D261" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E261" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F261" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B262" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C262" s="2" t="inlineStr">
-        <is>
-          <t>you</t>
-        </is>
-      </c>
-      <c r="D262" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B263" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C263" s="2" t="inlineStr">
-        <is>
-          <t>have</t>
-        </is>
-      </c>
-      <c r="D263" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B264" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C264" s="2" t="inlineStr">
-        <is>
-          <t>obtained</t>
-        </is>
-      </c>
-      <c r="D264" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B265" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C265" s="2" t="inlineStr">
-        <is>
-          <t>proper</t>
-        </is>
-      </c>
-      <c r="D265" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E265" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F265" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B266" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C266" s="2" t="inlineStr">
-        <is>
-          <t>authorization</t>
-        </is>
-      </c>
-      <c r="D266" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B267" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C267" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D267" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="E267" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F267" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B268" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C268" s="2" t="inlineStr">
-        <is>
-          <t>fly</t>
-        </is>
-      </c>
-      <c r="D268" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E268" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F268" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B269" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C269" s="2" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D269" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="E269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B270" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C270" s="2" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D270" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="E270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B271" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C271" s="2" t="inlineStr">
-        <is>
-          <t>airspace</t>
-        </is>
-      </c>
-      <c r="D271" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="E271" s="2" t="inlineStr">
+      <c r="F271" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F271" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2" t="inlineStr">
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -14981,7 +14981,7 @@
       </c>
       <c r="F280" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G280" s="2" t="b">
@@ -15005,7 +15005,7 @@
       </c>
       <c r="L280" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -15530,156 +15530,156 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="2" t="n">
+      <c r="A291" t="n">
         <v>18</v>
       </c>
-      <c r="B291" s="2" t="inlineStr">
+      <c r="B291" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C291" s="2" t="inlineStr">
+      <c r="C291" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D291" s="2" t="n">
+      <c r="D291" t="n">
         <v>5</v>
       </c>
-      <c r="E291" s="2" t="inlineStr">
+      <c r="E291" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F291" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G291" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H291" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I291" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J291" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K291" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L291" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G291" t="b">
+        <v>1</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I291" t="b">
+        <v>1</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K291" t="b">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="2" t="n">
+      <c r="A292" t="n">
         <v>18</v>
       </c>
-      <c r="B292" s="2" t="inlineStr">
+      <c r="B292" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C292" s="2" t="inlineStr">
+      <c r="C292" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D292" s="2" t="n">
+      <c r="D292" t="n">
         <v>6</v>
       </c>
-      <c r="E292" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F292" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G292" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H292" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I292" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J292" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K292" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L292" s="2" t="inlineStr">
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G292" t="b">
+        <v>1</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I292" t="b">
+        <v>1</v>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K292" t="b">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="2" t="n">
+      <c r="A293" t="n">
         <v>18</v>
       </c>
-      <c r="B293" s="2" t="inlineStr">
+      <c r="B293" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C293" s="2" t="inlineStr">
+      <c r="C293" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D293" s="2" t="n">
+      <c r="D293" t="n">
         <v>7</v>
       </c>
-      <c r="E293" s="2" t="inlineStr">
+      <c r="E293" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F293" s="2" t="inlineStr">
+      <c r="F293" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G293" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H293" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I293" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J293" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K293" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L293" s="2" t="inlineStr">
+      <c r="G293" t="b">
+        <v>1</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I293" t="b">
+        <v>1</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K293" t="b">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
